--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,14 +13,13 @@
     <sheet name="thermoMets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="mets" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="rxns" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="splitRatios" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="poolConst" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermo_ineq_constraints" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoRxns" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="255">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -403,15 +402,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
-  </si>
-  <si>
     <t xml:space="preserve">D-glucose extracellular</t>
   </si>
   <si>
@@ -550,9 +540,6 @@
     <t xml:space="preserve">transport reaction?</t>
   </si>
   <si>
-    <t xml:space="preserve">modelled?</t>
-  </si>
-  <si>
     <t xml:space="preserve">isoenzymes</t>
   </si>
   <si>
@@ -763,39 +750,15 @@
     <t xml:space="preserve">diffusion</t>
   </si>
   <si>
-    <t xml:space="preserve">doi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkv1049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diffusion setting subunits to 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedBiTer</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1146/annurev.biochem.73.011303.073626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits</t>
-  </si>
-  <si>
     <t xml:space="preserve">randomBiBi</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/0003-9861(72)90354-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">looks like 1 subunit from metacyc</t>
-  </si>
-  <si>
     <t xml:space="preserve">uniUni</t>
   </si>
   <si>
-    <t xml:space="preserve">PMID</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedBiBi</t>
   </si>
   <si>
@@ -805,160 +768,34 @@
     <t xml:space="preserve">pingPongBiBi</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1021/ja204637d 10.1021/bi00368a031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ijbiomac.2018.06.097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/0003-9861(83)90546-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID PMID; PMID PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468836 4154934 7350909; 468836 4154934 7350909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1257 468836 4154934 7350909</t>
-  </si>
-  <si>
     <t xml:space="preserve">promiscuousBiBi</t>
   </si>
   <si>
     <t xml:space="preserve">uniBi</t>
   </si>
   <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rcsb.org/structure/4x84 12517338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gky1048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rcsb.org/structure/4XEU 17914867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gky1048 8805555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same as in e. coli and some other organisms in brenda</t>
-  </si>
-  <si>
     <t xml:space="preserve">uniUniActivTwoTracks</t>
   </si>
   <si>
     <t xml:space="preserve">randomUniBi</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/S1874-6047(08)60452-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedUniBi</t>
   </si>
   <si>
-    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedBiUni</t>
   </si>
   <si>
-    <t xml:space="preserve">doi PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/0006-3002(58)90242-7 10712619 2649077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.pep.2011.06.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007/s00018-010-0473-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedTerBi</t>
   </si>
   <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1074/jbc.275.15.11147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17085493 10437801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/j.0022-3646.1992.00472.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468836 468836 468836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedTerUni</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doi doi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
-  </si>
-  <si>
     <t xml:space="preserve">pingPongUniUniUniBi</t>
   </si>
   <si>
     <t xml:space="preserve">massAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massAction setting subunits to 1</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +930,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1217,883 +1054,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E50"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>611</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>590</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>590</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>2230</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>2230</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>533.75</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>533.75</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2111,16 +1071,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,7 +1780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2841,13 +1801,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,7 +2535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3583,7 +2543,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3593,76 +2553,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,22 +2630,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,22 +2644,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,22 +2658,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,16 +2672,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3756,28 +2686,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>5470828</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,16 +2700,13 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,16 +2714,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,7 +2728,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -3833,16 +2742,13 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3850,28 +2756,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,16 +2770,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,43 +2784,13 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>6815421</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3940,43 +2798,13 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>6815421</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,46 +2812,13 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,51 +2826,12 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4084,34 +2840,13 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4119,7 +2854,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -4127,34 +2862,13 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -4162,19 +2876,14 @@
       <c r="K19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V19" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="W19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -4182,22 +2891,13 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V20" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -4205,28 +2905,14 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -4234,49 +2920,20 @@
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>273</v>
-      </c>
+      <c r="W22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>8805555</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4284,28 +2941,13 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>6326623</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,7 +2955,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -4321,28 +2963,13 @@
       <c r="K25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W25" s="0" t="n">
-        <v>12876349</v>
-      </c>
-      <c r="X25" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -4350,22 +2977,14 @@
       <c r="K26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V26" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -4373,43 +2992,20 @@
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="V27" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>285</v>
-      </c>
+      <c r="W27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="V28" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="W28" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="X28" s="0" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,22 +3013,13 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="V29" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,28 +3027,13 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>7447472</v>
-      </c>
-      <c r="V30" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W30" s="0" t="n">
-        <v>8636984</v>
-      </c>
-      <c r="X30" s="0" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,28 +3041,13 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>5128739</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="X31" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,22 +3055,13 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="V32" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="W32" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="X32" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4521,22 +3069,13 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="V33" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W33" s="0" t="n">
-        <v>9376357</v>
-      </c>
-      <c r="X33" s="0" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,34 +3083,13 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="T34" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="U34" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="V34" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>468836</v>
-      </c>
-      <c r="X34" s="0" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,25 +3097,13 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="V35" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="W35" s="0" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,25 +3111,13 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="V36" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="W36" s="0" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4631,7 +3125,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4645,7 +3139,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4659,7 +3153,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4673,16 +3167,13 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X40" s="0" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4690,16 +3181,13 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X41" s="0" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,16 +3195,13 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X42" s="0" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,51 +3209,12 @@
         <v>110</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4777,51 +3223,12 @@
         <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4830,51 +3237,12 @@
         <v>112</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4883,51 +3251,12 @@
         <v>113</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4936,51 +3265,12 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4989,51 +3279,12 @@
         <v>115</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5042,51 +3293,12 @@
         <v>116</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5095,51 +3307,12 @@
         <v>117</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5207,14 +3380,66 @@
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="W19" r:id="rId1" display="https://www.rcsb.org/structure/4x84 12517338"/>
-    <hyperlink ref="W21" r:id="rId2" display="https://www.rcsb.org/structure/4XEU 17914867"/>
-    <hyperlink ref="W22" r:id="rId3" display="https://www.rcsb.org/structure/4XEU 17914867"/>
-    <hyperlink ref="W26" r:id="rId4" display="https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707"/>
-    <hyperlink ref="W27" r:id="rId5" display="https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13756,18 +11981,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -13777,877 +12003,481 @@
       <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -14657,17 +12487,8 @@
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -14677,17 +12498,8 @@
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -14697,17 +12509,8 @@
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -14717,17 +12520,8 @@
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -14737,17 +12531,8 @@
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -14757,17 +12542,8 @@
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -14777,17 +12553,8 @@
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -14795,15 +12562,6 @@
         <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14823,33 +12581,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14857,13 +12613,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14871,13 +12624,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14885,13 +12635,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14899,13 +12646,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14913,13 +12657,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14927,13 +12668,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14941,13 +12679,10 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14955,13 +12690,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14969,13 +12701,10 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14983,13 +12712,10 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14997,13 +12723,10 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15011,15 +12734,12 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15028,15 +12748,12 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15045,15 +12762,12 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15062,13 +12776,10 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15076,13 +12787,10 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15090,13 +12798,10 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15104,13 +12809,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15118,13 +12820,10 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15132,13 +12831,10 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15146,13 +12842,10 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15160,13 +12853,10 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15174,13 +12864,10 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15188,13 +12875,10 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15202,13 +12886,10 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15216,13 +12897,10 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15230,13 +12908,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15244,13 +12919,10 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15258,13 +12930,10 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15272,13 +12941,10 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15286,13 +12952,10 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15300,13 +12963,10 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15314,13 +12974,10 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15328,13 +12985,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15342,13 +12996,10 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15356,13 +13007,10 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15370,13 +13018,10 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15384,13 +13029,10 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15398,13 +13040,10 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15412,13 +13051,10 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15426,13 +13062,10 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15445,9 +13078,6 @@
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -15459,9 +13089,6 @@
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -15473,9 +13100,6 @@
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -15487,9 +13111,6 @@
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -15501,9 +13122,6 @@
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -15515,9 +13133,6 @@
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -15529,9 +13144,6 @@
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -15543,13 +13155,7 @@
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15566,7 +13172,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A51"/>
+  <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -15579,252 +13185,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>69</v>
+      <c r="A3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>70</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>71</v>
+      <c r="A5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>72</v>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>73</v>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>74</v>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>75</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>76</v>
+      <c r="A10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>77</v>
+      <c r="A11" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>78</v>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>79</v>
+      <c r="A13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>80</v>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>81</v>
+      <c r="A15" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>82</v>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>83</v>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>84</v>
+      <c r="A18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>85</v>
+      <c r="A19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>86</v>
+      <c r="A20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>87</v>
+      <c r="A21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>88</v>
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>89</v>
+      <c r="A23" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>90</v>
+      <c r="A24" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>91</v>
+      <c r="A25" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>92</v>
+      <c r="A26" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>93</v>
+      <c r="A27" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>94</v>
+      <c r="A28" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>95</v>
+      <c r="A29" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>96</v>
+      <c r="A30" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>97</v>
+      <c r="A31" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>98</v>
+      <c r="A32" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>99</v>
+      <c r="A33" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>100</v>
+      <c r="A34" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>101</v>
+      <c r="A35" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>102</v>
+      <c r="A36" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>103</v>
+      <c r="A37" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>104</v>
+      <c r="A38" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>105</v>
+      <c r="A39" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>106</v>
+      <c r="A40" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>107</v>
+      <c r="A41" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>108</v>
+      <c r="A42" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>109</v>
+      <c r="A43" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>110</v>
+      <c r="A44" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>111</v>
+      <c r="A45" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>112</v>
+      <c r="A46" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>113</v>
+      <c r="A47" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>114</v>
+      <c r="A48" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>115</v>
+      <c r="A49" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>116</v>
+      <c r="A50" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>117</v>
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -16130,10 +13746,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A53"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16141,264 +13757,554 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
+      <c r="A16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="A17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
+      <c r="A19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
+      <c r="A21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
+      <c r="A22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
+      <c r="A23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
+      <c r="A25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
+      <c r="A28" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
+      <c r="A29" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
+      <c r="A30" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
+      <c r="A31" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
+      <c r="A32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
+      <c r="A33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
+      <c r="A34" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
+      <c r="A36" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
+      <c r="A37" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
+      <c r="A39" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
+      <c r="A40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
+      <c r="A41" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
+      <c r="A42" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
+      <c r="A43" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
+      <c r="A44" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
+      <c r="A45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
+      <c r="A46" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
+      <c r="A47" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
+      <c r="A48" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
+      <c r="A49" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
+      <c r="A50" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16419,24 +14325,25 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16444,10 +14351,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>6140</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16455,10 +14362,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16466,10 +14373,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16477,10 +14384,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>4790</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16488,10 +14395,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>4790</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16499,10 +14406,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16510,10 +14417,10 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16521,10 +14428,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16532,10 +14439,10 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16543,10 +14450,10 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>5510</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16554,10 +14461,10 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16565,10 +14472,10 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16576,10 +14483,10 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16587,10 +14494,10 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16598,10 +14505,10 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16609,10 +14516,10 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16620,10 +14527,10 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16631,10 +14538,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16642,10 +14549,10 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16653,10 +14560,10 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16664,10 +14571,10 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16675,10 +14582,10 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16686,10 +14593,10 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16697,10 +14604,10 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16708,10 +14615,10 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16719,10 +14626,10 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16730,10 +14637,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16741,10 +14648,10 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16752,10 +14659,10 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16763,10 +14670,10 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16774,10 +14681,10 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16785,10 +14692,10 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16796,10 +14703,10 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>3890</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16807,10 +14714,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16818,10 +14725,10 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16829,10 +14736,10 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16840,10 +14747,10 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>5337.5</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>533.75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16851,10 +14758,10 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>312.5</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16862,10 +14769,10 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16873,10 +14780,10 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16884,10 +14791,10 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16895,10 +14802,10 @@
         <v>110</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16906,10 +14813,10 @@
         <v>111</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16917,10 +14824,10 @@
         <v>112</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16928,10 +14835,10 @@
         <v>113</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16939,10 +14846,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16950,10 +14857,10 @@
         <v>115</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16961,10 +14868,10 @@
         <v>116</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16972,10 +14879,10 @@
         <v>117</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="257">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -42,25 +42,40 @@
     <t xml:space="preserve">model_v4_manual</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of particles</t>
+    <t xml:space="preserve">Number of models</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
@@ -69,19 +84,10 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
   </si>
   <si>
     <t xml:space="preserve">rxn ID</t>
@@ -897,9 +903,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -912,39 +922,39 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -952,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -960,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -968,80 +978,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1054,38 +1071,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1099,7 +1113,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1113,7 +1127,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1127,7 +1141,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1141,7 +1155,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1155,7 +1169,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1169,7 +1183,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1183,7 +1197,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1197,7 +1211,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1211,7 +1225,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1225,7 +1239,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1239,7 +1253,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1253,7 +1267,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1267,7 +1281,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1281,7 +1295,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1295,7 +1309,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1309,7 +1323,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1323,7 +1337,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1337,7 +1351,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1351,7 +1365,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1365,7 +1379,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1379,7 +1393,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1393,7 +1407,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1407,7 +1421,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1421,7 +1435,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1435,7 +1449,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1449,7 +1463,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1463,7 +1477,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1477,7 +1491,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1491,7 +1505,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1505,7 +1519,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1519,7 +1533,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1533,7 +1547,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1547,7 +1561,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1561,7 +1575,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -1575,7 +1589,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -1589,7 +1603,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1603,7 +1617,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -1617,7 +1631,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1631,7 +1645,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1645,7 +1659,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -1659,7 +1673,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -1673,7 +1687,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -1687,7 +1701,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1701,7 +1715,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1715,7 +1729,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1729,7 +1743,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1743,7 +1757,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1757,7 +1771,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1781,38 +1795,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1825,8 +1836,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1839,8 +1850,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -1853,8 +1864,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1867,8 +1878,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.928124943041768</v>
@@ -1881,8 +1892,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1895,8 +1906,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.980758075213057</v>
@@ -1909,8 +1920,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1923,8 +1934,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1937,8 +1948,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.850553653712464</v>
@@ -1951,8 +1962,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1965,8 +1976,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1979,8 +1990,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1993,8 +2004,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.998343913039016</v>
@@ -2007,8 +2018,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.925834010503215</v>
@@ -2021,8 +2032,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.914831185724609</v>
@@ -2035,8 +2046,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.889197992439507</v>
@@ -2049,8 +2060,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2063,8 +2074,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2077,8 +2088,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2091,8 +2102,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2105,8 +2116,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2119,8 +2130,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2133,8 +2144,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2147,8 +2158,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2161,8 +2172,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.923333362502783</v>
@@ -2175,8 +2186,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2189,8 +2200,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.955157747123127</v>
@@ -2203,8 +2214,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2217,8 +2228,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.824707049979672</v>
@@ -2231,8 +2242,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.952987338158675</v>
@@ -2245,8 +2256,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.873263888888888</v>
@@ -2259,8 +2270,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2273,8 +2284,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2287,8 +2298,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2301,8 +2312,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+      <c r="A37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.944333167529983</v>
@@ -2315,8 +2326,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
+      <c r="A38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2329,8 +2340,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.890748496539046</v>
@@ -2343,8 +2354,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
+      <c r="A40" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.738916363773338</v>
@@ -2357,8 +2368,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+      <c r="A41" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2371,8 +2382,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+      <c r="A42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -2385,8 +2396,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -2399,8 +2410,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
+      <c r="A44" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -2413,8 +2424,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2427,8 +2438,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
+      <c r="A46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2441,8 +2452,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2455,8 +2466,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2469,8 +2480,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2483,8 +2494,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2497,8 +2508,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
+      <c r="A51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -2511,8 +2522,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
+      <c r="A52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -2536,101 +2547,98 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>237</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -2641,10 +2649,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -2655,10 +2663,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -2669,10 +2677,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -2683,10 +2691,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -2697,10 +2705,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -2711,10 +2719,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -2725,10 +2733,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -2739,10 +2747,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -2753,10 +2761,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -2767,10 +2775,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -2781,10 +2789,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -2795,10 +2803,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2809,10 +2817,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -2823,10 +2831,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -2837,10 +2845,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -2851,10 +2859,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -2865,10 +2873,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -2876,14 +2884,14 @@
       <c r="K19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W19" s="2"/>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -2894,10 +2902,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -2905,14 +2913,14 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="2"/>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -2920,14 +2928,14 @@
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W22" s="2"/>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
@@ -2938,10 +2946,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -2952,10 +2960,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -2966,10 +2974,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -2977,14 +2985,14 @@
       <c r="K26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W26" s="2"/>
+      <c r="W26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -2992,14 +3000,14 @@
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W27" s="2"/>
+      <c r="W27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -3010,10 +3018,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
@@ -3024,10 +3032,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -3038,10 +3046,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -3052,10 +3060,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -3066,10 +3074,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0</v>
@@ -3080,10 +3088,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -3094,10 +3102,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -3108,10 +3116,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -3122,10 +3130,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -3136,10 +3144,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -3150,10 +3158,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -3164,10 +3172,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -3178,10 +3186,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -3192,10 +3200,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -3206,10 +3214,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -3220,10 +3228,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -3234,10 +3242,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -3248,10 +3256,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -3262,10 +3270,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -3276,10 +3284,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -3290,10 +3298,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -3304,10 +3312,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -3451,182 +3459,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -3784,7 +3789,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3942,7 +3947,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4100,7 +4105,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4258,7 +4263,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4416,7 +4421,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4574,7 +4579,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4732,7 +4737,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -4890,7 +4895,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5048,7 +5053,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5206,7 +5211,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5364,7 +5369,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5522,7 +5527,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5680,7 +5685,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5838,7 +5843,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5996,7 +6001,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6154,7 +6159,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6312,7 +6317,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6470,7 +6475,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6628,7 +6633,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6786,7 +6791,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6944,7 +6949,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7102,7 +7107,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7260,7 +7265,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7418,7 +7423,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7576,7 +7581,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7734,7 +7739,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7892,7 +7897,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8050,7 +8055,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -8208,7 +8213,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -8366,7 +8371,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -8524,7 +8529,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -8682,7 +8687,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -8840,7 +8845,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -8998,7 +9003,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -9156,7 +9161,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -9314,7 +9319,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -9472,7 +9477,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -9630,7 +9635,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -9788,7 +9793,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -9946,7 +9951,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -10104,7 +10109,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -10262,7 +10267,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -10420,7 +10425,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -10578,7 +10583,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -10736,7 +10741,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -10894,7 +10899,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11052,7 +11057,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -11210,7 +11215,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -11378,35 +11383,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -11416,8 +11418,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -11427,8 +11429,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -11438,8 +11440,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11449,8 +11451,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -11460,8 +11462,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11471,8 +11473,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -11482,8 +11484,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -11493,8 +11495,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -11504,8 +11506,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -11515,8 +11517,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -11526,8 +11528,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -11537,8 +11539,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -11548,8 +11550,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -11559,8 +11561,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -11570,8 +11572,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -11581,8 +11583,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -11592,8 +11594,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -11603,8 +11605,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -11614,8 +11616,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -11625,8 +11627,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -11636,8 +11638,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -11647,8 +11649,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -11658,8 +11660,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -11669,8 +11671,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -11680,8 +11682,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -11691,8 +11693,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -11702,8 +11704,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -11713,8 +11715,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -11724,8 +11726,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -11735,8 +11737,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -11746,8 +11748,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -11757,8 +11759,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -11768,8 +11770,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -11779,8 +11781,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -11790,8 +11792,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+      <c r="A37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -11801,8 +11803,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
+      <c r="A38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -11812,8 +11814,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -11823,8 +11825,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
+      <c r="A40" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -11834,8 +11836,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+      <c r="A41" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -11845,8 +11847,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+      <c r="A42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -11856,8 +11858,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -11867,8 +11869,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
+      <c r="A44" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -11878,8 +11880,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -11889,8 +11891,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
+      <c r="A46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -11900,8 +11902,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -11911,8 +11913,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -11922,8 +11924,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -11933,8 +11935,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -11944,8 +11946,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
+      <c r="A51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -11955,8 +11957,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
+      <c r="A52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>
@@ -11977,509 +11979,508 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+      <c r="A37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
+      <c r="A38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
+      <c r="A40" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+      <c r="A41" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+      <c r="A42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
+      <c r="A44" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -12489,8 +12490,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
+      <c r="A46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -12500,8 +12501,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -12511,8 +12512,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -12522,8 +12523,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -12533,8 +12534,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -12544,8 +12545,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
+      <c r="A51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -12555,8 +12556,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
+      <c r="A52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -12577,43 +12578,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>169</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -12621,10 +12621,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -12632,10 +12632,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -12654,10 +12654,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -12665,10 +12665,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -12676,10 +12676,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -12687,10 +12687,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -12698,10 +12698,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -12709,10 +12709,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -12720,10 +12720,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -12731,52 +12731,52 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -12784,10 +12784,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -12795,10 +12795,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -12806,10 +12806,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -12817,10 +12817,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -12828,10 +12828,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -12839,10 +12839,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -12850,10 +12850,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -12861,10 +12861,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -12872,10 +12872,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -12883,10 +12883,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -12894,10 +12894,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -12905,10 +12905,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -12916,10 +12916,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -12927,10 +12927,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -12938,10 +12938,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -12949,10 +12949,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -12960,10 +12960,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -12971,10 +12971,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -12982,10 +12982,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -12993,10 +12993,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -13004,10 +13004,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -13015,10 +13015,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -13026,10 +13026,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -13037,10 +13037,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -13048,10 +13048,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -13059,10 +13059,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13070,7 +13070,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -13092,7 +13092,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -13114,7 +13114,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -13136,7 +13136,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -13168,279 +13168,276 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
+      <c r="A2" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="A17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
+      <c r="A22" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
+      <c r="A23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
+      <c r="A25" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
+      <c r="A28" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
+      <c r="A29" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
+      <c r="A30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
+      <c r="A31" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
+      <c r="A32" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
+      <c r="A33" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
+      <c r="A34" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
+      <c r="A36" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
+      <c r="A37" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
+      <c r="A39" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
+      <c r="A40" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
+      <c r="A41" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
+      <c r="A42" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
+      <c r="A43" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
+      <c r="A44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
+      <c r="A45" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
+      <c r="A46" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
+      <c r="A47" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
+      <c r="A48" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
+      <c r="A49" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
+      <c r="A50" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
+      <c r="A51" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
+      <c r="A52" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
+      <c r="A53" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13455,279 +13452,276 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
+      <c r="A2" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="A17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
+      <c r="A22" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
+      <c r="A23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
+      <c r="A25" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
+      <c r="A28" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
+      <c r="A29" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
+      <c r="A30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
+      <c r="A31" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
+      <c r="A32" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
+      <c r="A33" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
+      <c r="A34" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
+      <c r="A36" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
+      <c r="A37" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
+      <c r="A39" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
+      <c r="A40" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
+      <c r="A41" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
+      <c r="A42" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
+      <c r="A43" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
+      <c r="A44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
+      <c r="A45" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
+      <c r="A46" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
+      <c r="A47" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
+      <c r="A48" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
+      <c r="A49" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
+      <c r="A50" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
+      <c r="A51" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
+      <c r="A52" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
+      <c r="A53" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13742,35 +13736,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>208</v>
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -13781,7 +13772,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -13792,7 +13783,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -13803,7 +13794,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -13814,7 +13805,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -13825,7 +13816,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -13836,7 +13827,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -13847,7 +13838,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -13858,7 +13849,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -13869,7 +13860,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -13880,7 +13871,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -13891,7 +13882,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -13902,7 +13893,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -13913,7 +13904,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -13924,7 +13915,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -13935,7 +13926,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -13946,7 +13937,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -13957,7 +13948,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -13968,7 +13959,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -13979,7 +13970,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -13990,7 +13981,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -14001,7 +13992,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -14012,7 +14003,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -14023,7 +14014,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -14034,7 +14025,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -14045,7 +14036,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -14056,7 +14047,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -14067,7 +14058,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -14078,7 +14069,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -14089,7 +14080,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -14100,7 +14091,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -14111,7 +14102,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -14122,7 +14113,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -14133,7 +14124,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -14144,7 +14135,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -14155,7 +14146,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -14166,7 +14157,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -14177,7 +14168,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -14188,7 +14179,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -14199,7 +14190,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -14210,7 +14201,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -14221,7 +14212,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -14232,7 +14223,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -14243,7 +14234,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -14254,7 +14245,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -14265,7 +14256,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -14276,7 +14267,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -14287,7 +14278,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -14298,7 +14289,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -14319,36 +14310,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>210</v>
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6140</v>
@@ -14359,7 +14349,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -14370,7 +14360,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>630</v>
@@ -14381,7 +14371,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -14392,7 +14382,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4790</v>
@@ -14403,7 +14393,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -14414,7 +14404,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>720</v>
@@ -14425,7 +14415,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -14436,7 +14426,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>360</v>
@@ -14447,7 +14437,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5510</v>
@@ -14458,7 +14448,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>720</v>
@@ -14469,7 +14459,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>585</v>
@@ -14480,7 +14470,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -14491,7 +14481,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>292.5</v>
@@ -14502,7 +14492,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1170</v>
@@ -14513,7 +14503,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -14524,7 +14514,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>295</v>
@@ -14535,7 +14525,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>440</v>
@@ -14546,7 +14536,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -14557,7 +14547,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>150</v>
@@ -14568,7 +14558,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -14579,7 +14569,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>150</v>
@@ -14590,7 +14580,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -14601,7 +14591,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6110</v>
@@ -14612,7 +14602,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>570</v>
@@ -14623,7 +14613,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -14634,7 +14624,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -14645,7 +14635,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>460</v>
@@ -14656,7 +14646,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -14667,7 +14657,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5110</v>
@@ -14678,7 +14668,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -14689,7 +14679,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4360</v>
@@ -14700,7 +14690,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3890</v>
@@ -14711,7 +14701,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>700</v>
@@ -14722,7 +14712,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>700</v>
@@ -14733,7 +14723,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2230</v>
@@ -14744,7 +14734,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>5337.5</v>
@@ -14755,7 +14745,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>312.5</v>
@@ -14766,7 +14756,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>10000</v>
@@ -14777,7 +14767,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>470</v>
@@ -14788,7 +14778,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>700</v>
@@ -14799,7 +14789,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>30</v>
@@ -14810,7 +14800,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>20</v>
@@ -14821,7 +14811,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>290</v>
@@ -14832,7 +14822,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10</v>
@@ -14843,7 +14833,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>90</v>
@@ -14854,7 +14844,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>140</v>
@@ -14865,7 +14855,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>50</v>
@@ -14876,7 +14866,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>750</v>
